--- a/OnlineCoursesAnalyzerTests/Data/DataHandlerTestsData/ProctoringStatusRow.xlsx
+++ b/OnlineCoursesAnalyzerTests/Data/DataHandlerTestsData/ProctoringStatusRow.xlsx
@@ -24,9 +24,6 @@
     <t>Session ID</t>
   </si>
   <si>
-    <t>User</t>
-  </si>
-  <si>
     <t>User full name</t>
   </si>
   <si>
@@ -121,6 +118,9 @@
   </si>
   <si>
     <t>st000100@student.spbu.ru</t>
+  </si>
+  <si>
+    <t>User email</t>
   </si>
 </sst>
 </file>
@@ -443,7 +443,7 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -456,87 +456,87 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
-      </c>
-      <c r="V1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>24</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>25</v>
-      </c>
-      <c r="F2" t="s">
-        <v>26</v>
       </c>
       <c r="H2" s="1">
         <v>44718.25</v>
@@ -545,10 +545,10 @@
         <v>44718</v>
       </c>
       <c r="J2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" t="s">
         <v>27</v>
-      </c>
-      <c r="K2" t="s">
-        <v>28</v>
       </c>
       <c r="L2">
         <v>7</v>
@@ -563,25 +563,25 @@
         <v>39069</v>
       </c>
       <c r="P2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q2">
         <v>75</v>
       </c>
       <c r="R2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S2">
         <v>13</v>
       </c>
       <c r="T2" t="s">
+        <v>30</v>
+      </c>
+      <c r="U2" t="s">
         <v>31</v>
       </c>
-      <c r="U2" t="s">
-        <v>32</v>
-      </c>
       <c r="V2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
